--- a/documents/mlp_MHE_dataset_2.xlsx
+++ b/documents/mlp_MHE_dataset_2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="548">
   <si>
     <t>models/test_rmse</t>
   </si>
@@ -2066,14 +2066,832 @@
     </r>
   </si>
   <si>
-    <t>doing</t>
+    <r>
+      <t>inv_range = [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF8888C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFED864A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF33CCFF"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFED864A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF33CCFF"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFED864A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF33CCFF"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFEBEBEB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>bins_range = [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF8888C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFED864A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF33CCFF"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>188</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFED864A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF33CCFF"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFED864A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF33CCFF"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>192</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFEBEBEB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>(0.48322523721164873, [23, 192])</t>
+  </si>
+  <si>
+    <t>(0.47038692722254916, [25, 189])</t>
+  </si>
+  <si>
+    <t>tuned_test_0</t>
+  </si>
+  <si>
+    <t>(0.5686276435338617, [13, 10])</t>
+  </si>
+  <si>
+    <t>(0.46072479168620983, [7, 180])</t>
+  </si>
+  <si>
+    <r>
+      <t>inv_range = [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF8888C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFED864A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF33CCFF"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFED864A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF33CCFF"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFED864A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>, 1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF33CCFF"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFEBEBEB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>bins_range = [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF8888C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFED864A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF33CCFF"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFED864A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF33CCFF"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFED864A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>, 200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFEBEBEB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>tuned_test_1</t>
+  </si>
+  <si>
+    <t>inv = 7</t>
+  </si>
+  <si>
+    <t>(0.47077763987237414, [7, 179])</t>
+  </si>
+  <si>
+    <t>(0.46353807983829026, [7, 182])</t>
+  </si>
+  <si>
+    <r>
+      <t>bins_range = [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF8888C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFED864A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF33CCFF"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>178</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFED864A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF33CCFF"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFED864A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF33CCFF"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>182</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFEBEBEB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>tuned_test_2</t>
+  </si>
+  <si>
+    <t>(0.47854590248949996, [7, 179])</t>
+  </si>
+  <si>
+    <t>(0.4626761908056436, [7, 178])</t>
+  </si>
+  <si>
+    <t>tuned_test_3</t>
+  </si>
+  <si>
+    <t>emb_size = 20</t>
+  </si>
+  <si>
+    <t>emb_size = 30</t>
+  </si>
+  <si>
+    <t>emb_size = 3</t>
+  </si>
+  <si>
+    <t>(0.4916682749587187, [7, 182])</t>
+  </si>
+  <si>
+    <t>(0.47830886590069904, [7, 181])</t>
+  </si>
+  <si>
+    <t>tuned_test_4</t>
+  </si>
+  <si>
+    <t>emb_size = 2</t>
+  </si>
+  <si>
+    <t>(0.49441647737517264, [7, 179])</t>
+  </si>
+  <si>
+    <t>(0.48075357681287084, [7, 180])</t>
+  </si>
+  <si>
+    <t>tuned_0</t>
+  </si>
+  <si>
+    <r>
+      <t>bins_range = [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF8888C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFED864A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF33CCFF"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFED864A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF33CCFF"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFED864A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF33CCFF"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFEBEBEB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>inv_range = [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF8888C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFED864A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF33CCFF"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFED864A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF33CCFF"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFED864A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF33CCFF"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFEBEBEB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>(0.5218940044727228, [50, 20])</t>
+  </si>
+  <si>
+    <t>(0.4619922563707943, [10, 200])</t>
+  </si>
+  <si>
+    <r>
+      <t>inv_range = [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF8888C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFED864A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF33CCFF"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFED864A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF33CCFF"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFED864A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF33CCFF"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFEBEBEB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>bins_range = [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF8888C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFED864A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF33CCFF"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>180</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFED864A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF33CCFF"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFED864A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF33CCFF"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFEBEBEB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>tuned_1</t>
+  </si>
+  <si>
+    <t>(0.48241891900063383, [8, 189])</t>
+  </si>
+  <si>
+    <t>(0.46187692660395224, [7, 192])</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2115,6 +2933,32 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFEBEBEB"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFED864A"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF33CCFF"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF54B33E"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2142,7 +2986,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2150,6 +2994,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2430,15 +3280,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2476,7 +3326,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -2515,7 +3365,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -2532,7 +3382,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -2549,7 +3399,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:25">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -2588,12 +3438,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:25">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -2632,71 +3482,103 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:25">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:25">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I15" t="s">
-        <v>41</v>
-      </c>
-      <c r="M15" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>515</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="U15" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="Y15" s="6" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="E16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>174</v>
+      <c r="E16" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>518</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>521</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="E17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="E17" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="Y17" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="M18" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
@@ -2715,88 +3597,133 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>436</v>
+        <v>513</v>
       </c>
       <c r="G20" s="3"/>
       <c r="I20" t="s">
-        <v>42</v>
+        <v>516</v>
       </c>
       <c r="M20" t="s">
-        <v>454</v>
+        <v>522</v>
       </c>
       <c r="Q20" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>526</v>
+      </c>
+      <c r="U20" t="s">
+        <v>532</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
       <c r="E21" t="s">
-        <v>414</v>
+        <v>514</v>
       </c>
       <c r="F21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" t="s">
-        <v>43</v>
+        <v>517</v>
       </c>
       <c r="J21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>523</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>527</v>
+      </c>
+      <c r="U21" t="s">
+        <v>533</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:25">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="E24" t="s">
+        <v>538</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="E25" s="5" t="s">
+        <v>540</v>
+      </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="I25" s="5" t="s">
+        <v>543</v>
+      </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="26" spans="1:25">
+      <c r="E26" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
       <c r="N27" s="1"/>
     </row>
-    <row r="29" spans="1:17" s="1" customFormat="1">
+    <row r="28" spans="1:25">
+      <c r="E28" t="s">
+        <v>541</v>
+      </c>
+      <c r="I28" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" s="1" customFormat="1">
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
-      <c r="E29"/>
+      <c r="E29" t="s">
+        <v>542</v>
+      </c>
       <c r="F29"/>
       <c r="G29"/>
       <c r="H29"/>
-      <c r="I29"/>
+      <c r="I29" t="s">
+        <v>547</v>
+      </c>
       <c r="J29"/>
       <c r="K29"/>
       <c r="L29"/>
       <c r="M29"/>
       <c r="N29"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
